--- a/data/05_input/zm.ca18a.xlsx
+++ b/data/05_input/zm.ca18a.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/9D27033C-9AE8-4013-A03B-97563CF56161/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/barn/data/08_sra_list_excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/0FDE538C-6C91-452C-AFA0-621810845CFD/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/barn/data/05_input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E31FD7-D3CE-624F-84F2-725DC0F053B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14E136D3-F3B3-1F44-83D3-BB75971C7E4F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8600" yWindow="12740" windowWidth="17280" windowHeight="11560" xr2:uid="{67760308-83C7-244E-9309-67C566F6D356}"/>
+    <workbookView xWindow="10280" yWindow="3840" windowWidth="19140" windowHeight="11800" xr2:uid="{67760308-83C7-244E-9309-67C566F6D356}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="59">
   <si>
     <t>SampleID</t>
   </si>
@@ -48,9 +48,6 @@
     <t>spots</t>
   </si>
   <si>
-    <t>avgLength</t>
-  </si>
-  <si>
     <t>group</t>
   </si>
   <si>
@@ -148,16 +145,79 @@
   </si>
   <si>
     <t>At.root_tip</t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>r0</t>
+  </si>
+  <si>
+    <t>r1</t>
+  </si>
+  <si>
+    <t>r2</t>
+  </si>
+  <si>
+    <t>s01</t>
+  </si>
+  <si>
+    <t>s02</t>
+  </si>
+  <si>
+    <t>s03</t>
+  </si>
+  <si>
+    <t>s04</t>
+  </si>
+  <si>
+    <t>s05</t>
+  </si>
+  <si>
+    <t>s06</t>
+  </si>
+  <si>
+    <t>s07</t>
+  </si>
+  <si>
+    <t>s08</t>
+  </si>
+  <si>
+    <t>s09</t>
+  </si>
+  <si>
+    <t>s10</t>
+  </si>
+  <si>
+    <t>s11</t>
+  </si>
+  <si>
+    <t>s12</t>
+  </si>
+  <si>
+    <t>s13</t>
+  </si>
+  <si>
+    <t>s14</t>
+  </si>
+  <si>
+    <t>s15</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -499,11 +559,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04FFD014-A071-C843-B0EC-9B05A4E70C0E}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -515,7 +575,7 @@
     <col min="6" max="6" width="8.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -529,7 +589,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -541,358 +601,410 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="J1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
-      <c r="G2" t="b">
-        <v>1</v>
+      <c r="G2" t="s">
+        <v>40</v>
       </c>
       <c r="H2">
         <v>229234322</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
-      <c r="G3" t="b">
-        <v>1</v>
+      <c r="G3" t="s">
+        <v>40</v>
       </c>
       <c r="H3">
         <v>14585774</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
-      <c r="G4" t="b">
-        <v>1</v>
+      <c r="G4" t="s">
+        <v>40</v>
       </c>
       <c r="H4">
         <v>54581037</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F5">
         <v>2</v>
       </c>
-      <c r="G5" t="b">
-        <v>1</v>
+      <c r="G5" t="s">
+        <v>40</v>
       </c>
       <c r="H5">
         <v>12148476</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
-      <c r="G6" t="b">
-        <v>1</v>
+      <c r="G6" t="s">
+        <v>40</v>
       </c>
       <c r="H6">
         <v>47039926</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F7">
         <v>2</v>
       </c>
-      <c r="G7" t="b">
-        <v>1</v>
+      <c r="G7" t="s">
+        <v>40</v>
       </c>
       <c r="H7">
         <v>121867749</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
-      <c r="G8" t="b">
-        <v>1</v>
+      <c r="G8" t="s">
+        <v>40</v>
       </c>
       <c r="H8">
         <v>31939383</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F9">
         <v>2</v>
       </c>
-      <c r="G9" t="b">
-        <v>1</v>
+      <c r="G9" t="s">
+        <v>40</v>
       </c>
       <c r="H9">
         <v>105066795</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
-      <c r="G10" t="b">
-        <v>1</v>
+      <c r="G10" t="s">
+        <v>40</v>
       </c>
       <c r="H10">
         <v>66468754</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F11">
         <v>2</v>
       </c>
-      <c r="G11" t="b">
-        <v>1</v>
+      <c r="G11" t="s">
+        <v>40</v>
       </c>
       <c r="H11">
         <v>76721726</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
-      <c r="G12" t="b">
-        <v>1</v>
+      <c r="G12" t="s">
+        <v>40</v>
       </c>
       <c r="H12">
         <v>58357916</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F13">
         <v>2</v>
       </c>
-      <c r="G13" t="b">
-        <v>1</v>
+      <c r="G13" t="s">
+        <v>40</v>
       </c>
       <c r="H13">
         <v>62832213</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
-      <c r="G14" t="b">
-        <v>1</v>
+      <c r="G14" t="s">
+        <v>40</v>
       </c>
       <c r="H14">
         <v>69344102</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F15">
         <v>2</v>
       </c>
-      <c r="G15" t="b">
-        <v>1</v>
+      <c r="G15" t="s">
+        <v>40</v>
       </c>
       <c r="H15">
         <v>60788245</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
         <v>23</v>
       </c>
-      <c r="B16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
       <c r="E16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
-      <c r="G16" t="b">
-        <v>1</v>
+      <c r="G16" t="s">
+        <v>40</v>
       </c>
       <c r="H16">
         <v>23976400</v>
       </c>
+      <c r="I16" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I7">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H7">
     <sortCondition ref="A2:A7"/>
   </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>